--- a/test/hello2.xlsx
+++ b/test/hello2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7182,7 +7182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -7693,16 +7693,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8326,7 +8326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -19324,12 +19324,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/test/hello2.xlsx
+++ b/test/hello2.xlsx
@@ -9,25 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="AAA" sheetId="2" r:id="rId2"/>
-    <sheet name="BBB" sheetId="3" r:id="rId3"/>
-    <sheet name="CCC" sheetId="4" r:id="rId4"/>
-    <sheet name="DDD" sheetId="5" r:id="rId5"/>
-    <sheet name="EEE" sheetId="6" r:id="rId6"/>
-    <sheet name="GGG" sheetId="7" r:id="rId7"/>
-    <sheet name="HHH" sheetId="8" r:id="rId8"/>
-    <sheet name="K" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="1615">
   <si>
     <t>上交所首次公开发行股票正常审核状态企业基本信息情况表</t>
   </si>
@@ -7176,6 +7168,18 @@
   <si>
     <t>邹棒、莫彪、王喜、胡峰</t>
   </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7184,7 +7188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7383,6 +7387,12 @@
       <sz val="10.8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -7739,7 +7749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7985,6 +7995,10 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8326,8 +8340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8336,42 +8350,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.15">
       <c r="A3" s="73" t="s">
@@ -8392,10 +8406,10 @@
       <c r="F3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="77"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="73" t="s">
         <v>9</v>
       </c>
@@ -8461,9 +8475,7 @@
       <c r="N4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="21">
-        <v>3</v>
-      </c>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -8508,7 +8520,9 @@
       <c r="N5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -8550,8 +8564,8 @@
       <c r="M6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>28</v>
+      <c r="N6" s="75" t="s">
+        <v>1612</v>
       </c>
       <c r="O6" s="21"/>
     </row>
@@ -8596,7 +8610,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>28</v>
+        <v>1613</v>
       </c>
       <c r="O7" s="21"/>
     </row>
@@ -8643,7 +8657,9 @@
       <c r="N8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="20" t="s">
+        <v>1614</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -19320,126 +19336,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D10">
-        <v>555</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>